--- a/biology/Botanique/Trithrinax_brasiliensis/Trithrinax_brasiliensis.xlsx
+++ b/biology/Botanique/Trithrinax_brasiliensis/Trithrinax_brasiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trithrinax brasiliensis est une espèce de palmiers (famille des Arecaceae), native du sud du Brésil et du nord de l'Argentine [1],[2]. Assez rustique, il croît dans des zones relativement sèches. Sa silhouette rappelle étroitement celle d'un gros Trachycarpus fortunei.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trithrinax brasiliensis est une espèce de palmiers (famille des Arecaceae), native du sud du Brésil et du nord de l'Argentine ,. Assez rustique, il croît dans des zones relativement sèches. Sa silhouette rappelle étroitement celle d'un gros Trachycarpus fortunei.
 Synonyme : Trithrinax acanthocoma Drude
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Brésil, ce palmier est appelé «carandaí» et «burutí»[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Brésil, ce palmier est appelé «carandaí» et «burutí».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trithrinax brasiliensis est un palmier à stipe droit, solitaire, recouverte d'une épaisse couche de crin persistant et épineux.
 Ses feuilles sont vert sombre, parfaitement palmées et rigides. Les folioles sont terminées par une épine acérée. Les pétioles sont inermes.
@@ -576,9 +592,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil dans les états du Paraná, du Rio Grande do Sul, et de Santa Catarina dans les milieux ouverts et arides à l'intérieur des terres[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil dans les états du Paraná, du Rio Grande do Sul, et de Santa Catarina dans les milieux ouverts et arides à l'intérieur des terres.
 Ce palmier est un grand amateur de soleil et de chaleur, et ne se plaît donc pas beaucoup à l'ombre. Les climats méditerranéens lui conviennent parfaitement, car il s'adapte sans problème à la sécheresse.
 Sa résistance hivernale est bonne jusqu'à des températures de l'ordre de −8 °C à −9 °C. Les sujets installés sur la Côte d'Azur ont prouvé leur capacité de survie après des gels exceptionnels de −12 °C.
 </t>
